--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,28 +449,82 @@
           <t>name</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>phone</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>address</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dob</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>age</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>gender</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>salary</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin_name</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>next_of_kin_phone</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>privileges</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>aslam</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>aslam</t>
+          <t>ahmed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Aslam</t>
-        </is>
-      </c>
+          <t>Ahmed nawaz</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr"/>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Ali</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -480,7 +534,92 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Ali Khan</t>
+          <t>ali haroon</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>35984573403</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>karachi</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>31</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>25000</v>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>Haroon</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>+92 4343434355</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>manage_members,manage_packages,manage_inventory,manage_sales,manage_attendance,view_reports</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>b3tablocker</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>sudo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>bukhari</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+923432928333</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>jhoopri</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>members,attendance,payments,inventory,sales</t>
         </is>
       </c>
     </row>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,132 +494,137 @@
           <t>privileges</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>staff_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ahmed</t>
+          <t>admin</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ahmed</t>
+          <t>ali</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Ahmed nawaz</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
+          <t>ali haroon</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>35984573403</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>karachi</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>31</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>25000</v>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>Haroon</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>+92 4343434355</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>attendance,payments,packages</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>cleaner</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>b3tablocker</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ali</t>
+          <t>sudo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ali haroon</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>35984573403</v>
+          <t>bukhari</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>923432928333</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>karachi</t>
+          <t>jhoopri</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>31</v>
+          <t>2025-01-01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>25000</v>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>1200</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>Haroon</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>+92 4343434355</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>manage_members,manage_packages,manage_inventory,manage_sales,manage_attendance,view_reports</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>b3tablocker</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>sudo</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>bukhari</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+923432928333</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>jhoopri</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>members,attendance,payments,inventory,sales</t>
+          <t>members</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>trainer</t>
         </is>
       </c>
     </row>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -577,10 +577,8 @@
           <t>bukhari</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>923432928333</t>
-        </is>
+      <c r="D3" t="n">
+        <v>923432928333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -592,37 +590,92 @@
           <t>2025-01-01</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>21</t>
-        </is>
+      <c r="G3" t="n">
+        <v>21</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>1200</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="I3" t="n">
+        <v>1200</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr">
         <is>
           <t>members</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
+        <is>
+          <t>trainer</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>bilal</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>bilal</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>+92 3472020308</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>karachi</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Other</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>members,attendance</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
         <is>
           <t>trainer</t>
         </is>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,20 +645,16 @@
           <t>2025-02-24</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
+      <c r="G4" t="n">
+        <v>22</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>55000</t>
-        </is>
+      <c r="I4" t="n">
+        <v>55000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -678,6 +674,73 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>trainer</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Ahmed</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ahmed</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ahmed nawaz</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>+923432928333</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>karachi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>members,member_attendance,staff_attendance,payments</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>manager</t>
         </is>
       </c>
     </row>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -617,22 +617,22 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>bilal</t>
+          <t>Ahmed</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>bilal</t>
+          <t>ahmed</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Bilal</t>
+          <t>Ahmed nawaz</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>+92 3472020308</t>
+          <t>+923432928333</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -642,19 +642,19 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Other</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="I4" t="n">
-        <v>55000</v>
+        <v>250000</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
@@ -668,77 +668,10 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>members,attendance</t>
+          <t>members,member_attendance,staff_attendance,payments</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
-        <is>
-          <t>trainer</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>ahmed</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Ahmed nawaz</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>+923432928333</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>karachi</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>250000</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>members,member_attendance,staff_attendance,payments</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>manager</t>
         </is>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,10 +630,8 @@
           <t>Ahmed nawaz</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>+923432928333</t>
-        </is>
+      <c r="D4" t="n">
+        <v>923432928333</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -674,6 +672,73 @@
       <c r="M4" t="inlineStr">
         <is>
           <t>manager</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>qasim</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>qasim</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Qasim</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>923432928333</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>karachi</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-02-17</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>members,payments,packages</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>trainer</t>
         </is>
       </c>
     </row>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M5"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -503,21 +503,23 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>admin</t>
+          <t>qasim</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ali</t>
+          <t>qasim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>ali haroon</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>35984573403</v>
+          <t>Qasim</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>923432928333</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -526,217 +528,40 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>31</v>
+          <t>2025-03-07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>25000</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Haroon</t>
+          <t>x</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>+92 4343434355</t>
+          <t>x</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>attendance,payments,packages</t>
+          <t>members,attendance,payments,packages</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
-        <is>
-          <t>cleaner</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>b3tablocker</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>sudo</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>bukhari</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>923432928333</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>jhoopri</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-01-01</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>21</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Other</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>1200</v>
-      </c>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>members</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>trainer</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ahmed</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ahmed</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Ahmed nawaz</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>923432928333</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>karachi</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>20</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>250000</v>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>members,member_attendance,staff_attendance,payments</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>qasim</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>qasim</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Qasim</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>923432928333</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>karachi</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2025-02-17</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>250000</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>members,payments,packages</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
         <is>
           <t>trainer</t>
         </is>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -508,7 +508,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>qasim</t>
+          <t>QASIM</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -516,10 +516,8 @@
           <t>Qasim</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>923432928333</t>
-        </is>
+      <c r="D2" t="n">
+        <v>923432928333</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -531,20 +529,16 @@
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="G2" t="n">
+        <v>20</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>250000</t>
-        </is>
+      <c r="I2" t="n">
+        <v>250000</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,6 +561,73 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>maryam</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Maryam</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Maryam</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>923432928333</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Islamabad</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-02-25</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>members,member_attendance,staff_attendance,payments,reports,staff,sales,inventory,packages</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -516,8 +516,10 @@
           <t>Qasim</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>923432928333</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>923432928333</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -529,16 +531,20 @@
           <t>2025-03-07</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>20</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
       </c>
-      <c r="I2" t="n">
-        <v>250000</v>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>250000</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
@@ -552,7 +558,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>members,attendance,payments,packages</t>
+          <t>members,staff_attendance,payments,packages</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -577,10 +583,8 @@
           <t>Maryam</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>923432928333</t>
-        </is>
+      <c r="D3" t="n">
+        <v>923432928333</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -592,20 +596,16 @@
           <t>2025-02-25</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
+      <c r="G3" t="n">
+        <v>20</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>250000</t>
-        </is>
+      <c r="I3" t="n">
+        <v>250000</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,139 +494,6 @@
           <t>privileges</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>staff_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>qasim</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>QASIM</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Qasim</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>923432928333</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>karachi</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-03-07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>250000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>members,staff_attendance,payments,packages</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>trainer</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>maryam</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Maryam</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Maryam</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>923432928333</v>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Islamabad</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2025-02-25</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>20</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>250000</v>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>members,member_attendance,staff_attendance,payments,reports,staff,sales,inventory,packages</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,78 @@
           <t>privileges</t>
         </is>
       </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>staff_type</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>BILAL</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Bilal</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+92 3472020308</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Kalam</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-02-24</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>55000</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>x</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>members,member_attendance,staff_attendance,payments,reports,sales,inventory,packages</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>manager</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -503,17 +503,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>BILAL</t>
+          <t>Qasim</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>BILAL</t>
+          <t>qasim</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Bilal</t>
+          <t>Qasim</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -523,12 +523,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Kalam</t>
+          <t>Lahore</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-02-24</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -558,7 +558,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>members,member_attendance,staff_attendance,payments,reports,sales,inventory,packages</t>
+          <t>members,member_attendance,staff_attendance,reports,staff,sales,packages</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -1,37 +1,87 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hassaan\Documents\everything\project\New folder\gym_management\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED8D80A1-27D2-44BB-895A-06904DE02ACA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>dob</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>salary</t>
+  </si>
+  <si>
+    <t>next_of_kin_name</t>
+  </si>
+  <si>
+    <t>next_of_kin_phone</t>
+  </si>
+  <si>
+    <t>privileges</t>
+  </si>
+  <si>
+    <t>staff_type</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +96,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,151 +420,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:M2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N2" sqref="A2:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>phone</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>address</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>dob</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>age</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>gender</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>salary</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>next_of_kin_name</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>next_of_kin_phone</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>privileges</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>staff_type</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Qasim</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>qasim</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Qasim</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+92 3472020308</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Lahore</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Male</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>55000</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>x</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>members,member_attendance,staff_attendance,reports,staff,sales,packages</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>manager</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/data/receptionists.xlsx
+++ b/data/receptionists.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>username</t>
   </si>
@@ -50,39 +50,6 @@
   </si>
   <si>
     <t>privileges</t>
-  </si>
-  <si>
-    <t>staff_type</t>
-  </si>
-  <si>
-    <t>majid</t>
-  </si>
-  <si>
-    <t>+42524523452</t>
-  </si>
-  <si>
-    <t>x</t>
-  </si>
-  <si>
-    <t>2025-04-24</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>89908</t>
-  </si>
-  <si>
-    <t>Haroon</t>
-  </si>
-  <si>
-    <t>members,member_attendance</t>
-  </si>
-  <si>
-    <t>receptionist</t>
   </si>
 </sst>
 </file>
@@ -440,13 +407,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M2"/>
+  <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -482,50 +449,6 @@
       </c>
       <c r="L1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
